--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_22.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69569.68931930498</v>
+        <v>155377.841415342</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>7.058423000547998</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.64360395382627</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +832,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>73.31370764131968</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>313.3565959923311</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>150.2110002150369</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>311.4936872159403</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>26.94389492651033</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>332.1317943015978</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>413.1818335825639</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.13267830032996</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.275596830496642</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>403.2634945072138</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>143.7811982615461</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>205.1478855987998</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>376.0368885193218</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>33.89392690056398</v>
       </c>
       <c r="G25" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>225.9309996476815</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>86.11283245544996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>130.1024780662198</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>111.8822753849631</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2992,25 +2992,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>175.7309251498739</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>368.0745826192873</v>
       </c>
       <c r="H32" t="n">
-        <v>1.382771042868235</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.83808333974886</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>121.4752263841244</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>115.2511029009966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>6.305787840852963</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>128.4340426649161</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228957</v>
+        <v>355.5467565582664</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>51.87721125827402</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.7293199355301</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>44.94101498269178</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T43" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3986,16 +3986,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>125.7220754819249</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>11.2876601105465</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>31.295582139804</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.0839286340179</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C2" t="n">
-        <v>439.1214116936061</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>80.85571308685564</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.68376869814</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644633</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.182375355301</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.182375355301</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D5" t="n">
-        <v>934.9166767485501</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E5" t="n">
-        <v>934.9166767485501</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>523.9307719589426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
-        <v>523.9307719589426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419422</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661918</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F7" t="n">
-        <v>409.0761618661918</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954101</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F8" t="n">
-        <v>786.546878019087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>368.5830699172739</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5072,19 +5072,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2476.569858826099</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.569858826099</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X11" t="n">
-        <v>2476.569858826099</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.569858826099</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,22 +5139,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600564</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.409918978289</v>
+        <v>1584.314837422906</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.447402037877</v>
+        <v>1215.352320482494</v>
       </c>
       <c r="D14" t="n">
-        <v>1193.181703431127</v>
+        <v>857.086621875744</v>
       </c>
       <c r="E14" t="n">
-        <v>807.3934508328825</v>
+        <v>471.2983692774997</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>471.2983692774997</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5315,13 +5315,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5352,7 +5352,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5364,34 +5364,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>710.8232485495353</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>562.6765899837193</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>562.6765899837193</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2465.942913862886</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>2096.980396922474</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1738.714698315724</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1352.926445717479</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>941.9405409278718</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2465.942913862886</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2465.942913862886</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5704,13 +5704,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635867</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>850.7171392082162</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>850.7171392082162</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2551.915557420701</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2551.915557420701</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2298.153772058793</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1967.090884715222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1614.322229445108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1240.856471184028</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>850.7171392082162</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2107.405821939171</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C22" t="n">
-        <v>2107.405821939171</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D22" t="n">
-        <v>2107.405821939171</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2107.405821939171</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U22" t="n">
-        <v>2107.405821939171</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V22" t="n">
-        <v>2107.405821939171</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W22" t="n">
-        <v>2107.405821939171</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X22" t="n">
-        <v>2107.405821939171</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y22" t="n">
-        <v>2107.405821939171</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1957.780595683986</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>1588.818078743575</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D23" t="n">
-        <v>1230.552380136824</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E23" t="n">
-        <v>844.7641275385799</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F23" t="n">
-        <v>433.7782227489724</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5984,22 +5984,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.380435748108</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.380435748108</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.69838933464703</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C25" t="n">
-        <v>97.69838933464703</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="D25" t="n">
-        <v>97.69838933464703</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="E25" t="n">
-        <v>97.69838933464703</v>
+        <v>88.17927161891393</v>
       </c>
       <c r="F25" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6151,46 +6151,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X25" t="n">
-        <v>500.1394333084169</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y25" t="n">
-        <v>279.3468541648867</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>609.3508327416157</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C26" t="n">
-        <v>609.3508327416157</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D26" t="n">
-        <v>609.3508327416157</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E26" t="n">
-        <v>609.3508327416157</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F26" t="n">
-        <v>609.3508327416157</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1386.090004781549</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y26" t="n">
-        <v>995.9506728057374</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D28" t="n">
-        <v>108.9687959810045</v>
+        <v>288.8387344486666</v>
       </c>
       <c r="E28" t="n">
-        <v>108.9687959810045</v>
+        <v>140.9256408662735</v>
       </c>
       <c r="F28" t="n">
-        <v>108.9687959810045</v>
+        <v>140.9256408662735</v>
       </c>
       <c r="G28" t="n">
-        <v>108.9687959810045</v>
+        <v>140.9256408662735</v>
       </c>
       <c r="H28" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>750.1002187247734</v>
+        <v>554.3221432721093</v>
       </c>
       <c r="C29" t="n">
-        <v>381.1377017843616</v>
+        <v>185.3596263316976</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>185.3596263316976</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>185.3596263316976</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>185.3596263316976</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>185.3596263316976</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2584.136691639472</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2584.136691639472</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2253.073804295901</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W29" t="n">
-        <v>1900.305149025787</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X29" t="n">
-        <v>1526.839390764707</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y29" t="n">
-        <v>1136.700058788895</v>
+        <v>940.9219833362311</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U31" t="n">
-        <v>2567.064746875</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V31" t="n">
-        <v>2312.380258669114</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1253.251950079336</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C32" t="n">
-        <v>884.2894331389248</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D32" t="n">
-        <v>884.2894331389248</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E32" t="n">
-        <v>884.2894331389248</v>
+        <v>836.7213943062218</v>
       </c>
       <c r="F32" t="n">
-        <v>473.3035283493172</v>
+        <v>425.7354895166142</v>
       </c>
       <c r="G32" t="n">
-        <v>55.33972024750409</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.942981820364</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6719,31 +6719,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.851790143458</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064343</v>
+        <v>470.722514162039</v>
       </c>
       <c r="C34" t="n">
-        <v>559.1928012785274</v>
+        <v>470.722514162039</v>
       </c>
       <c r="D34" t="n">
-        <v>409.0761618661917</v>
+        <v>470.722514162039</v>
       </c>
       <c r="E34" t="n">
-        <v>261.1630682837986</v>
+        <v>470.722514162039</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>470.722514162039</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064343</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064343</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857192</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6965,22 +6965,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2580.733835562671</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2326.972050200762</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>1995.909162857192</v>
+        <v>2690.779608350695</v>
       </c>
       <c r="W35" t="n">
-        <v>1995.909162857192</v>
+        <v>2338.01095308058</v>
       </c>
       <c r="X35" t="n">
-        <v>1995.909162857192</v>
+        <v>1964.5451948195</v>
       </c>
       <c r="Y35" t="n">
-        <v>1995.909162857192</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>183.6743380475524</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>183.6743380475524</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036446</v>
@@ -7099,46 +7099,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>352.67413830922</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U37" t="n">
-        <v>352.67413830922</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>352.67413830922</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>1568.12097575261</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776798</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785536</v>
+        <v>824.0670245476149</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889461</v>
+        <v>413.0811197580073</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7175,34 +7175,34 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
         <v>2697.149091018223</v>
@@ -7217,7 +7217,7 @@
         <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7251,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2402.112484954497</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2233.112684692829</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2075.364312125359</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.9054987607762</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>53.94298182036446</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036446</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036446</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1573.11042906179</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1199.64467080071</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>809.505338824898</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T43" t="n">
-        <v>598.044640063212</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>598.044640063212</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755379</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082163</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,34 +7664,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2685.747414138883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2685.747414138883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2685.747414138883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2685.747414138883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064343</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C46" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>412.3028537806171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>243.3030535189495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>85.55468095147961</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064343</v>
+        <v>279.346854164887</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142014</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>358.2144687704596</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>355.2867661184355</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22565,7 +22565,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.85718120047547</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>10.56617677202604</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,22 +22829,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>135.3263138290204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22942,28 +22942,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.09880204401401</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23027,16 +23027,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>12.42908554841688</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23066,10 +23066,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>93.29370628033419</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -23078,16 +23078,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23224,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,19 +23312,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>32.85072763808748</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436246</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,19 +23425,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74592769735753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787183</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>74.7442514401136</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.6023364382310774</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.99007165458435</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.52067551358118</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23944,16 +23944,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>30.63451454742548</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,13 +24142,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>72.57258286784689</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>19.88721985928444</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>37.74728150147314</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>111.5271211223673</v>
       </c>
       <c r="G25" t="n">
-        <v>123.9919488199112</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,16 +24406,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24443,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>187.8531703731135</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,16 +24497,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,13 +24616,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>70.05805638634519</v>
       </c>
       <c r="I28" t="n">
-        <v>80.49006577330459</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24695,7 +24695,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>193.8202946981373</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>104.5660449726947</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>49.30418030821039</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>45.70958740150769</v>
       </c>
       <c r="H32" t="n">
-        <v>322.5400017214889</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24974,7 +24974,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,28 +25075,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>107.5829646831824</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.83457587492647</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>101.1972174566612</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>321.4464706292819</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>6.531579127422162</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>96.25160475629406</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789928</v>
+        <v>58.23741346252859</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25558,19 +25558,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>83.0884105340642</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,13 +25603,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>10.20105013673168</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>206.2831525255975</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T43" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,16 +25874,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>281.1539702597865</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>43.19074246426521</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,7 +25922,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,19 +26032,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>103.6700396525342</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173336</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173336</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="G2" t="n">
         <v>318067.8710173334</v>
@@ -26335,22 +26335,22 @@
         <v>318067.8710173335</v>
       </c>
       <c r="J2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="K2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="L2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="M2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="N2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="O2" t="n">
         <v>318067.8710173333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>318067.8710173333</v>
-      </c>
-      <c r="L2" t="n">
-        <v>318067.8710173334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>318067.8710173334</v>
-      </c>
-      <c r="N2" t="n">
-        <v>318067.8710173336</v>
-      </c>
-      <c r="O2" t="n">
-        <v>318067.8710173334</v>
       </c>
       <c r="P2" t="n">
         <v>318067.8710173334</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
@@ -26433,28 +26433,28 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="I4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="J4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="K4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="L4" t="n">
         <v>513.1084990597035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="J4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="K4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="L4" t="n">
-        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="O4" t="n">
         <v>513.1084990597035</v>
-      </c>
-      <c r="O4" t="n">
-        <v>513.1084990597036</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26491,13 +26491,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
@@ -26506,10 +26506,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26522,7 +26522,7 @@
         <v>-355272.1947596801</v>
       </c>
       <c r="C6" t="n">
-        <v>234695.6844548643</v>
+        <v>234695.6844548644</v>
       </c>
       <c r="D6" t="n">
         <v>234695.6844548643</v>
@@ -26531,7 +26531,7 @@
         <v>268323.2844548643</v>
       </c>
       <c r="F6" t="n">
-        <v>268323.2844548644</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="G6" t="n">
         <v>268323.2844548642</v>
@@ -26543,22 +26543,22 @@
         <v>268323.2844548643</v>
       </c>
       <c r="J6" t="n">
-        <v>91900.06526227111</v>
+        <v>91900.06526227127</v>
       </c>
       <c r="K6" t="n">
-        <v>268323.2844548642</v>
+        <v>268323.2844548644</v>
       </c>
       <c r="L6" t="n">
+        <v>268323.2844548644</v>
+      </c>
+      <c r="M6" t="n">
         <v>268323.2844548643</v>
-      </c>
-      <c r="M6" t="n">
-        <v>268323.2844548642</v>
       </c>
       <c r="N6" t="n">
         <v>268323.2844548644</v>
       </c>
       <c r="O6" t="n">
-        <v>268323.2844548643</v>
+        <v>268323.2844548642</v>
       </c>
       <c r="P6" t="n">
         <v>268323.2844548643</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26753,31 +26753,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26811,13 +26811,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
@@ -26826,10 +26826,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,31 +27009,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31850,28 +31850,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529209</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32558,7 +32558,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,19 +33251,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33439,16 +33439,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044143</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405363</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,13 +35498,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,16 +35732,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,7 +35975,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,16 +36206,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36920,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37087,7 +37087,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,13 +37394,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,13 +37868,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518546.315152257</v>
+        <v>1488223.255533207</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498515.6226645372</v>
+        <v>562850.5778210894</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075098</v>
+        <v>2395347.547096097</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9513403.089520615</v>
+        <v>10480163.69441186</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200.3078308860488</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>353.5759586385877</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>205.1478855987994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>48.74430349788367</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>386.3070254145917</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8509874798048</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>18.01023183214325</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.3473597085996</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.389005322401447</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>334.5817096732201</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>197.4472918106255</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>412.3345997681973</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.26710025257501</v>
+        <v>96.04675908158652</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>141.3836306779003</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>210.1028265769112</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1082018880815</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.7554234621014</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>96.89780243894165</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>34.71884533515473</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183531</v>
+        <v>1.556718218862017</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>142.1850271380592</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>193.7635966276314</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8369022322176</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.4115131709637</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5650375952926</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>36.90059813861358</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>136.3901703054961</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>412.3345997681973</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>309.0773614149405</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1028265769112</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1082018880815</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>4.656133198424804</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.7554234621014</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>96.89780243894165</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>34.71884533515474</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>1.556718218862045</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>142.1850271380592</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>193.7635966276314</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8369022322176</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>89.48195886177317</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.95064306205145</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>9.1524075981136</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.3091010793076</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.67818248838715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.39279548941571</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.9531421794295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>31.94750994786686</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>110.3923605146218</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>174.3062600431781</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
-        <v>3.441682912441539</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>174.3062600431768</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.5674858910851</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C2" t="n">
-        <v>952.5674858910851</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>952.5674858910851</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y2" t="n">
-        <v>952.5674858910851</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>2489.929004554789</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.766673031379</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C5" t="n">
-        <v>1001.804156090968</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D5" t="n">
-        <v>1001.804156090968</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="E5" t="n">
-        <v>1001.804156090968</v>
+        <v>1182.332723154365</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>771.3468183647574</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2307.009759042411</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1938.047242101999</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1579.781543495249</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.993290897004</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>783.0073861073968</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4968,37 +4968,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>799.3633507333279</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="C11" t="n">
-        <v>430.4008337929162</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="D11" t="n">
-        <v>72.13513518616571</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="E11" t="n">
-        <v>72.13513518616571</v>
+        <v>1190.314270175017</v>
       </c>
       <c r="F11" t="n">
-        <v>72.13513518616571</v>
+        <v>779.3283653854096</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>361.3645572835965</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5086,7 +5086,7 @@
         <v>1576.102522773261</v>
       </c>
       <c r="Y11" t="n">
-        <v>1185.96319079745</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="12">
@@ -5132,13 +5132,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5232,19 +5232,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.952954307291</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5369,31 +5369,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2334.584964297723</v>
+        <v>1966.887006382147</v>
       </c>
       <c r="C17" t="n">
-        <v>1965.622447357311</v>
+        <v>1597.924489441735</v>
       </c>
       <c r="D17" t="n">
-        <v>1607.356748750561</v>
+        <v>1398.482780542114</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.568496152316</v>
+        <v>1012.694527943869</v>
       </c>
       <c r="F17" t="n">
-        <v>810.5825913627089</v>
+        <v>601.7086231542619</v>
       </c>
       <c r="G17" t="n">
-        <v>393.4948095991363</v>
+        <v>185.20902742881</v>
       </c>
       <c r="H17" t="n">
-        <v>75.27169437164576</v>
+        <v>185.20902742881</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403562</v>
+        <v>325.7601138906748</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604008</v>
+        <v>802.5577892093654</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1446.344094318912</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389909</v>
+        <v>2179.286948567237</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2909.45758691965</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3553.749377683569</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>4065.96313197564</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>4373.392570021673</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>4409.604953178556</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>4266.79320501906</v>
       </c>
       <c r="T17" t="n">
-        <v>3484.789894598736</v>
+        <v>4054.568127668645</v>
       </c>
       <c r="U17" t="n">
-        <v>3484.789894598736</v>
+        <v>3800.923479296845</v>
       </c>
       <c r="V17" t="n">
-        <v>3484.789894598736</v>
+        <v>3469.860591953275</v>
       </c>
       <c r="W17" t="n">
-        <v>3484.789894598736</v>
+        <v>3117.09193668316</v>
       </c>
       <c r="X17" t="n">
-        <v>3111.324136337656</v>
+        <v>2743.626178422081</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.184804361845</v>
+        <v>2353.486846446269</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4243502130026</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9713209318757</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0369112706244</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7994562651688</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2648982920538</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>221.1382079262947</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>123.2616398061517</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835158</v>
+        <v>235.9926015077589</v>
       </c>
       <c r="K18" t="n">
-        <v>192.6510469835158</v>
+        <v>615.2280446173537</v>
       </c>
       <c r="L18" t="n">
-        <v>697.0125868496336</v>
+        <v>1186.561294725517</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.557936316738</v>
+        <v>1905.25947119359</v>
       </c>
       <c r="N18" t="n">
-        <v>1994.22650480987</v>
+        <v>2006.850695530421</v>
       </c>
       <c r="O18" t="n">
-        <v>2242.979918893832</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507183</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2628.101078434116</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2484.479838900723</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.759034226347</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.640951163502</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.488842931759</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.251486203557</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.399985998024</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.639687233071</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>818.6252485153937</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>649.6890655874868</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>499.5724261751511</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>351.6593325927579</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>204.7693850948476</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>204.7693850948476</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>204.7693850948476</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>88.95549972113515</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>220.0468382225166</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230479</v>
+        <v>443.3250529390618</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422854</v>
+        <v>689.1297475364078</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783893</v>
+        <v>934.5243723185883</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669878</v>
+        <v>1145.169731061408</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1301.892543347221</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="T19" t="n">
-        <v>1073.926476585963</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="U19" t="n">
-        <v>846.0830042674853</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="V19" t="n">
-        <v>591.3985160615985</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="W19" t="n">
-        <v>301.9813460246378</v>
+        <v>1037.547044798778</v>
       </c>
       <c r="X19" t="n">
-        <v>73.9917951266205</v>
+        <v>1000.273713345633</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9917951266205</v>
+        <v>1000.273713345633</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2134.774920425097</v>
+        <v>2109.698754541642</v>
       </c>
       <c r="C20" t="n">
-        <v>1765.812403484685</v>
+        <v>1971.930905748211</v>
       </c>
       <c r="D20" t="n">
-        <v>1407.546704877934</v>
+        <v>1613.665207141461</v>
       </c>
       <c r="E20" t="n">
-        <v>1021.75845227969</v>
+        <v>1227.876954543217</v>
       </c>
       <c r="F20" t="n">
-        <v>610.7725474900825</v>
+        <v>816.8910497536092</v>
       </c>
       <c r="G20" t="n">
-        <v>193.68476572651</v>
+        <v>400.3914540281575</v>
       </c>
       <c r="H20" t="n">
-        <v>193.68476572651</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>325.7601138906748</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>802.5577892093656</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1446.344094318911</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2179.286948567237</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>2909.457586919649</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3553.749377683569</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>4065.96313197564</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>4373.392570021673</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>4409.604953178556</v>
       </c>
       <c r="S20" t="n">
-        <v>3543.374718827853</v>
+        <v>4409.604953178556</v>
       </c>
       <c r="T20" t="n">
-        <v>3543.374718827853</v>
+        <v>4197.37987582814</v>
       </c>
       <c r="U20" t="n">
-        <v>3289.683015573004</v>
+        <v>3943.73522745634</v>
       </c>
       <c r="V20" t="n">
-        <v>3289.683015573004</v>
+        <v>3612.67234011277</v>
       </c>
       <c r="W20" t="n">
-        <v>3284.97985072611</v>
+        <v>3259.903684842655</v>
       </c>
       <c r="X20" t="n">
-        <v>2911.51409246503</v>
+        <v>2886.437926581576</v>
       </c>
       <c r="Y20" t="n">
-        <v>2521.374760489219</v>
+        <v>2496.298594605764</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4243502130026</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9713209318757</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0369112706244</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7994562651688</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2648982920538</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>221.1382079262947</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>123.2616398061517</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835158</v>
+        <v>235.9926015077588</v>
       </c>
       <c r="K21" t="n">
-        <v>192.6510469835158</v>
+        <v>615.2280446173536</v>
       </c>
       <c r="L21" t="n">
-        <v>458.6786074911417</v>
+        <v>1186.561294725517</v>
       </c>
       <c r="M21" t="n">
-        <v>779.0139270208435</v>
+        <v>1876.246529045959</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2628.101078434116</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2484.479838900723</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.759034226347</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.640951163502</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.488842931759</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.251486203557</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.399985998024</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.639687233071</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.7152795435728</v>
+        <v>533.1117795562103</v>
       </c>
       <c r="C22" t="n">
-        <v>392.7152795435728</v>
+        <v>533.1117795562103</v>
       </c>
       <c r="D22" t="n">
-        <v>242.5986401312371</v>
+        <v>382.9951401438746</v>
       </c>
       <c r="E22" t="n">
-        <v>242.5986401312371</v>
+        <v>235.0820465614815</v>
       </c>
       <c r="F22" t="n">
-        <v>242.5986401312371</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>88.19209906357112</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>88.95549972113513</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>220.0468382225166</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230479</v>
+        <v>443.3250529390617</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422854</v>
+        <v>689.1297475364076</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783893</v>
+        <v>934.5243723185881</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669878</v>
+        <v>1145.169731061407</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165603</v>
+        <v>1301.892543347221</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585963</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="R22" t="n">
-        <v>1053.77431187682</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="S22" t="n">
-        <v>846.3340271292252</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="T22" t="n">
-        <v>620.7048304415902</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="U22" t="n">
-        <v>620.7048304415902</v>
+        <v>1326.964214835739</v>
       </c>
       <c r="V22" t="n">
-        <v>620.7048304415902</v>
+        <v>1072.279726629852</v>
       </c>
       <c r="W22" t="n">
-        <v>620.7048304415902</v>
+        <v>1072.279726629852</v>
       </c>
       <c r="X22" t="n">
-        <v>392.7152795435728</v>
+        <v>844.2901757318346</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.7152795435728</v>
+        <v>623.4975965883044</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6071,25 +6071,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>772.8730769161741</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.284655180325</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2023.248313029762</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>981.5095496229244</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6183,16 +6183,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>981.5095496229244</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>674.4285624571608</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.288466700114</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1470.321218962642</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1246.535803752148</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>957.4071649657059</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>702.722676759819</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>413.3055067228584</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028583</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,31 +6530,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
-        <v>1149.698165809328</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028583</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>1064.424802345397</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,25 +6727,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171745</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.765035414674</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N33" t="n">
-        <v>2192.176613678825</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>358.8683222506741</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C34" t="n">
-        <v>358.8683222506741</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
         <v>208.7516828383384</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273991</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904385</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>554.6108700904385</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>540.5167870809138</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1387.227105931296</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>854.4182661194303</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4182661194303</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.21084526296</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.21084526296</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>1075.21084526296</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>854.4182661194303</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,31 +7159,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>341.481456104476</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>571.4445619728251</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1339.812708365287</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1684.333364002905</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2353.797125305564</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4334.202995919602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4684.787643677749</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4684.787643677749</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4684.787643677749</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4684.787643677749</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4684.787643677749</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4684.787643677749</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>571.4445619728251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1339.812708365287</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>1684.333364002905</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2353.797125305564</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>677.7114078547894</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>677.7114078547894</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>677.7114078547894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>898.5039869983195</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>898.5039869983195</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>677.7114078547894</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>138.7081686256434</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>385.4732965321074</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1153.841442924569</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1958.253021188719</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1322.84934122136</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1322.84934122136</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.84934122136</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.84934122136</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1322.84934122136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>233.9591104033641</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>108.6260312757493</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>284.6042822503827</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.1551420398813</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22789,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>358.1317422438278</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22959,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.93318254099023</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.7739381886518</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>19.57541305575751</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>158.8578157762264</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23472,19 +23472,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>14.65925904419294</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23706,13 +23706,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>157.2357498100575</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>309.0773614149405</v>
       </c>
       <c r="I17" t="n">
-        <v>117.2289406413155</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>166.6595749469737</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>150.3897769216911</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>117.4286075662164</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>200.813850247729</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>222.2568614883001</v>
       </c>
       <c r="U19" t="n">
-        <v>60.69561706280436</v>
+        <v>286.2464072976826</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>188.8090572504236</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>228.8827214655115</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>96.04675908158656</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>141.3836306779003</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>344.5848355189882</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>90.35002132016413</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,22 +24135,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.6595749469737</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>150.3897769216911</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>115.4115131709637</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.22253860574</v>
+        <v>117.4286075662164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.813850247729</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.2568614883001</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>286.2464072976826</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>158.0944135005142</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>169.6117089042957</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.9064708637076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>126.0411671571535</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,7 +25131,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.6315111726653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>116.6679630703455</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>36.04160213194733</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.24130101521112</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
-        <v>142.9922797341276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25845,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>23.61454994042646</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>693966.2640378185</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693966.2640378184</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693966.2640378184</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810565.5736639766</v>
+        <v>888772.0941999544</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810565.5736639765</v>
+        <v>888772.0941999544</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705016</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173333</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>318067.8710173334</v>
@@ -26328,31 +26328,31 @@
         <v>318067.8710173335</v>
       </c>
       <c r="G2" t="n">
-        <v>371509.2212626557</v>
+        <v>407353.8765083122</v>
       </c>
       <c r="H2" t="n">
-        <v>371509.2212626559</v>
+        <v>407353.8765083123</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="K2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="K2" t="n">
-        <v>430131.9657114796</v>
-      </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="O2" t="n">
-        <v>430131.9657114799</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114797</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004548</v>
+        <v>397686.3454566934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>99295.86104592078</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.599055394763127e-10</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704782</v>
+        <v>103026.0539211866</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597035</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26432,25 +26432,25 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>639.5264553066582</v>
+        <v>729.5057670599354</v>
       </c>
       <c r="H4" t="n">
-        <v>639.5264553066581</v>
+        <v>729.5057670599351</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26484,16 +26484,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>83121.46425552097</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>83121.46425552096</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871661</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355272.1947596803</v>
+        <v>-360313.1230332169</v>
       </c>
       <c r="C6" t="n">
-        <v>234695.6844548643</v>
+        <v>229654.7561813275</v>
       </c>
       <c r="D6" t="n">
-        <v>234695.6844548642</v>
+        <v>229654.7561813275</v>
       </c>
       <c r="E6" t="n">
-        <v>268323.2844548643</v>
+        <v>262254.8707090451</v>
       </c>
       <c r="F6" t="n">
-        <v>268323.2844548643</v>
+        <v>262254.8707090451</v>
       </c>
       <c r="G6" t="n">
-        <v>65280.49952329289</v>
+        <v>-76193.39792173682</v>
       </c>
       <c r="H6" t="n">
-        <v>301698.1515237478</v>
+        <v>321492.9475349569</v>
       </c>
       <c r="I6" t="n">
-        <v>81824.68647308803</v>
+        <v>237086.3937665449</v>
       </c>
       <c r="J6" t="n">
-        <v>160933.6268795944</v>
+        <v>159959.0356198728</v>
       </c>
       <c r="K6" t="n">
-        <v>337356.8460721871</v>
+        <v>336382.2548124657</v>
       </c>
       <c r="L6" t="n">
-        <v>337356.8460721872</v>
+        <v>336382.2548124657</v>
       </c>
       <c r="M6" t="n">
-        <v>337356.8460721871</v>
+        <v>336382.2548124657</v>
       </c>
       <c r="N6" t="n">
-        <v>337356.8460721873</v>
+        <v>336382.2548124657</v>
       </c>
       <c r="O6" t="n">
-        <v>277047.2589351395</v>
+        <v>233356.2008912791</v>
       </c>
       <c r="P6" t="n">
-        <v>337356.8460721872</v>
+        <v>336382.2548124655</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26752,34 +26752,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380635</v>
+        <v>738.3242645507767</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>738.3242645507764</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>1102.401238294639</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>1102.401238294639</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>215.7324361209768</v>
+        <v>360.58060033369</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160367</v>
+        <v>92.05814090332376</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282006</v>
+        <v>428.1139655400833</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708168</v>
+        <v>112.8124049589342</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>428.1139655400833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>428.1139655400833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>164.9650608849588</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>19.88721985928487</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>27.47714460620324</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.57645329849123</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31618,25 +31618,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31852,7 +31852,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
@@ -31861,7 +31861,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -32089,7 +32089,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>195.5988322391985</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
         <v>193.3156655923047</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>2.968137746937793</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>30.39744070082669</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651536</v>
+        <v>114.4291304888194</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>251.9169810991618</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>377.5582519270386</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712521</v>
+        <v>468.3943974998862</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>521.1790171569912</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359659</v>
+        <v>529.6122385304783</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822508</v>
+        <v>500.0978188093655</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>426.8219181818387</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>320.5254851196289</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>186.4472827460813</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>67.63643890834503</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>12.9930229872202</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2374510197550234</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.588093701109218</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>15.33764179755482</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>54.67778751626035</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>150.0400281385687</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>256.4423061128863</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>344.8183275149642</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>402.3867241801732</v>
       </c>
       <c r="N18" t="n">
-        <v>315.3009220762772</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>377.8478903687356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080783</v>
+        <v>98.60111593378112</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>29.49814396577865</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308303</v>
+        <v>6.401132067190222</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1044798487571854</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.331404411485007</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206991</v>
+        <v>11.83739558574852</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784122</v>
+        <v>40.03896175629458</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490359</v>
+        <v>94.13029189198998</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>154.6849852616217</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>197.9435249584164</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>208.7036933385088</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>203.7411859866103</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>188.1879617251718</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>161.0273117308775</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104759</v>
+        <v>111.4869639471673</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937805</v>
+        <v>59.86478381095311</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>23.20274778924325</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522782</v>
+        <v>5.688727939981391</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.07262205880827319</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>2.968137746937793</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>30.39744070082667</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>114.4291304888194</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>251.9169810991617</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>377.5582519270385</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>468.3943974998861</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>521.179017156991</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>529.6122385304781</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>500.0978188093654</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>426.8219181818386</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>320.5254851196287</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>186.4472827460813</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>67.63643890834501</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>12.99302298722019</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2374510197550234</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.588093701109217</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>15.33764179755481</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>54.67778751626034</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>150.0400281385687</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>256.4423061128862</v>
       </c>
       <c r="L21" t="n">
-        <v>36.42874205987556</v>
+        <v>344.8183275149641</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>373.0807220108488</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>413.0367034301556</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>98.60111593378109</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>29.49814396577864</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>6.40113206719022</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1044798487571854</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.331404411485007</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>11.83739558574852</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>40.03896175629458</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>94.13029189198996</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>154.6849852616216</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>197.9435249584164</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>208.7036933385088</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>203.7411859866103</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>188.1879617251717</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>161.0273117308774</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>111.4869639471672</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>59.8647838109531</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>23.20274778924324</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>5.68872793998139</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.07262205880827317</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,28 +32791,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>199.2022664297724</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,34 +33019,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,28 +33256,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>380.6314029223778</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>359.9147016846446</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,19 +33736,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9841349460419</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>216.5719061378214</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>204.8215025038712</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>213.6814033547948</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>543.5994944994187</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>239.9676917445493</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>481.6138134532228</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517153</v>
+        <v>650.2891970803494</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730411</v>
+        <v>740.346317422551</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>737.5460993458715</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233095</v>
+        <v>650.7997886504241</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>517.3876305980518</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>310.534785905084</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>36.57816480493165</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584801</v>
+        <v>149.2934368123109</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>383.0661041511059</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>577.1042930385491</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122261</v>
+        <v>725.9577540081548</v>
       </c>
       <c r="N18" t="n">
-        <v>663.3015843364974</v>
+        <v>102.6173983200308</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>629.1139652010207</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105729</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.771111775317209</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>132.4154934357388</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>225.5335502187326</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>248.2875703003494</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>247.8733583658389</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>212.7730896392115</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>158.305870995771</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353202</v>
+        <v>25.32492069547288</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>239.9676917445492</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>481.6138134532227</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>650.2891970803494</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>740.3463174225508</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>737.5460993458713</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>650.799788650424</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>517.3876305980516</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>310.5347859050839</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>36.57816480493159</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584801</v>
+        <v>149.2934368123108</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>383.0661041511058</v>
       </c>
       <c r="L21" t="n">
-        <v>268.7147075834606</v>
+        <v>577.104293038549</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>696.6517518388304</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502846</v>
+        <v>761.0373656903759</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.7711117753171806</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>132.4154934357388</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>225.5335502187325</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>248.2875703003494</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>247.8733583658389</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>212.7730896392114</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>158.3058709957709</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>25.32492069547285</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>450.4683412620575</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>419.0504083262154</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>704.2024327503594</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>683.4857315126262</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>153.2625701670493</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>742.9847972062621</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>78.73046716346239</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>437.1074680274562</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>464.9474781870799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
